--- a/OnBoard/output/trust/bio/Bio_Trust_27.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_27.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q345"/>
+  <dimension ref="A1:Q344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17480,35 +17480,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F345">
-        <v>1</v>
-      </c>
-      <c r="G345">
-        <v>1</v>
-      </c>
-      <c r="I345">
-        <v>-1</v>
-      </c>
-      <c r="L345">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
